--- a/TestCase/input.xlsx
+++ b/TestCase/input.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A86E25-FEA9-4854-83EB-E87A9C7D3FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="2985" yWindow="3135" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
   <si>
     <t>校名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,175 +57,169 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>科系代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲錄取人數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楊順亦</t>
+  </si>
+  <si>
+    <t>劉雅書</t>
+  </si>
+  <si>
+    <t>郭姵紫</t>
+  </si>
+  <si>
+    <t>陳怡喬</t>
+  </si>
+  <si>
+    <t>林宜禾</t>
+  </si>
+  <si>
+    <t>曹昀志</t>
+  </si>
+  <si>
+    <t>李偉昀</t>
+  </si>
+  <si>
+    <t>陳雅玲</t>
+  </si>
+  <si>
+    <t>陳建緯</t>
+  </si>
+  <si>
+    <t>毛雲誠</t>
+  </si>
+  <si>
+    <t>許俊玲</t>
+  </si>
+  <si>
+    <t>王梅智</t>
+  </si>
+  <si>
+    <t>林佳蓉</t>
+  </si>
+  <si>
+    <t>准考證號碼</t>
+  </si>
+  <si>
     <t>學生姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第一志願</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正備取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>准考證號碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第二志願</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正備取02</t>
   </si>
   <si>
     <t>第三志願</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正備取03</t>
   </si>
   <si>
     <t>第四志願</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正備取04</t>
   </si>
   <si>
     <t>第五志願</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正備取05</t>
   </si>
   <si>
     <t>第六志願</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科系代碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r4f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rgh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rhd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hkm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uyy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ytr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ryj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wfx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hfr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dvb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>efg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sda</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲錄取人數</t>
+  </si>
+  <si>
+    <t>正備取06</t>
+  </si>
+  <si>
+    <t>正備取01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -237,6 +232,33 @@
       <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -260,18 +282,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -365,6 +392,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -400,6 +444,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -575,22 +636,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="3" width="10.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6328125" style="2" customWidth="1"/>
-    <col min="7" max="19" width="10.6328125" style="2" customWidth="1"/>
+    <col min="1" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="5"/>
+    <col min="6" max="6" width="12.625" style="4" customWidth="1"/>
+    <col min="7" max="19" width="10.625" style="4" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,56 +661,56 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="P1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -660,34 +723,51 @@
       <c r="D2" s="1">
         <v>2</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="3">
         <v>11080002</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
+      <c r="G2" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="H2" s="3">
         <v>2004</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="J2" s="3">
         <v>2008</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L2" s="3">
         <v>1002</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+      <c r="N2" s="7">
+        <v>2004</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="7">
+        <v>2008</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="7">
+        <v>1002</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -700,34 +780,34 @@
       <c r="D3" s="1">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="3">
         <v>11080003</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>21</v>
+      <c r="G3" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="H3" s="3">
         <v>1001</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="J3" s="3">
         <v>1002</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L3" s="3">
         <v>2008</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -740,30 +820,30 @@
       <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="3">
         <v>11080004</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>22</v>
+      <c r="G4" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="H4" s="3">
         <v>2004</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="J4" s="3">
         <v>3009</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -776,34 +856,34 @@
       <c r="D5" s="1">
         <v>4</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="2"/>
       <c r="F5" s="3">
         <v>11080005</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>23</v>
+      <c r="G5" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="H5" s="3">
         <v>2008</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J5" s="3">
         <v>2004</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="L5" s="3">
         <v>3009</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -816,226 +896,226 @@
       <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="3">
         <v>11080006</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>24</v>
+      <c r="G6" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="H6" s="3">
         <v>2008</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="J6" s="3">
         <v>1001</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="E7" s="4"/>
+    <row r="7" spans="1:19">
+      <c r="E7" s="2"/>
       <c r="F7" s="3">
         <v>11080007</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>25</v>
+      <c r="G7" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="H7" s="3">
         <v>3009</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J7" s="3">
         <v>1002</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="E8" s="4"/>
+    <row r="8" spans="1:19">
+      <c r="E8" s="2"/>
       <c r="F8" s="3">
         <v>11080008</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>26</v>
+      <c r="G8" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="H8" s="3">
         <v>3009</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="J8" s="3">
         <v>2004</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="L8" s="3">
         <v>2008</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="E9" s="4"/>
+    <row r="9" spans="1:19">
+      <c r="E9" s="2"/>
       <c r="F9" s="3">
         <v>11080009</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>27</v>
+      <c r="G9" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="H9" s="3">
         <v>1002</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="J9" s="3">
         <v>2004</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L9" s="3">
         <v>2008</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="E10" s="4"/>
+    <row r="10" spans="1:19">
+      <c r="E10" s="2"/>
       <c r="F10" s="3">
         <v>11080010</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>28</v>
+      <c r="G10" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="H10" s="3">
         <v>2008</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="J10" s="3">
         <v>3009</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="E11" s="4"/>
+    <row r="11" spans="1:19">
+      <c r="E11" s="2"/>
       <c r="F11" s="3">
         <v>11080011</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>29</v>
+      <c r="G11" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="H11" s="3">
         <v>1001</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="J11" s="3">
         <v>1002</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="E12" s="4"/>
+    <row r="12" spans="1:19">
+      <c r="E12" s="2"/>
       <c r="F12" s="3">
         <v>11080012</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>30</v>
+      <c r="G12" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="H12" s="3">
         <v>2008</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="J12" s="3">
         <v>1002</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L12" s="3">
         <v>1001</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="E13" s="4"/>
+    <row r="13" spans="1:19">
+      <c r="E13" s="2"/>
       <c r="F13" s="3">
         <v>11080013</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>31</v>
+      <c r="G13" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="H13" s="3">
         <v>2004</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="J13" s="3">
         <v>3009</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="L13" s="3">
         <v>1001</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="E14" s="4"/>
-      <c r="F14" s="2">
+    <row r="14" spans="1:19">
+      <c r="E14" s="2"/>
+      <c r="F14" s="4">
         <v>11080014</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>48</v>
+      <c r="G14" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H14" s="3">
         <v>2004</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1043,8 +1123,8 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="E15" s="4"/>
+    <row r="15" spans="1:19">
+      <c r="E15" s="2"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>

--- a/TestCase/input.xlsx
+++ b/TestCase/input.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A86E25-FEA9-4854-83EB-E87A9C7D3FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C746F669-185D-4027-846C-C708878B2FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="3135" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>校名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -748,24 +748,12 @@
       <c r="M2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="7">
-        <v>2004</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="7">
-        <v>2008</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="R2" s="7">
-        <v>1002</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">

--- a/TestCase/input.xlsx
+++ b/TestCase/input.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C746F669-185D-4027-846C-C708878B2FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13963268-441B-5C47-A270-93A754013BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -178,40 +178,41 @@
     <t>學生姓名</t>
   </si>
   <si>
+    <t>第二志願</t>
+  </si>
+  <si>
+    <t>正備取02</t>
+  </si>
+  <si>
+    <t>第三志願</t>
+  </si>
+  <si>
+    <t>正備取03</t>
+  </si>
+  <si>
+    <t>第四志願</t>
+  </si>
+  <si>
+    <t>正備取04</t>
+  </si>
+  <si>
+    <t>第五志願</t>
+  </si>
+  <si>
+    <t>正備取05</t>
+  </si>
+  <si>
+    <t>第六志願</t>
+  </si>
+  <si>
+    <t>正備取06</t>
+  </si>
+  <si>
+    <t>正備取01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>第一志願</t>
-  </si>
-  <si>
-    <t>第二志願</t>
-  </si>
-  <si>
-    <t>正備取02</t>
-  </si>
-  <si>
-    <t>第三志願</t>
-  </si>
-  <si>
-    <t>正備取03</t>
-  </si>
-  <si>
-    <t>第四志願</t>
-  </si>
-  <si>
-    <t>正備取04</t>
-  </si>
-  <si>
-    <t>第五志願</t>
-  </si>
-  <si>
-    <t>正備取05</t>
-  </si>
-  <si>
-    <t>第六志願</t>
-  </si>
-  <si>
-    <t>正備取06</t>
-  </si>
-  <si>
-    <t>正備取01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -238,6 +239,8 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -282,21 +285,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -317,9 +316,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -357,9 +356,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -392,26 +391,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -444,26 +426,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -637,20 +602,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="10.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="5"/>
-    <col min="6" max="6" width="12.625" style="4" customWidth="1"/>
-    <col min="7" max="19" width="10.625" style="4" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="5"/>
+    <col min="1" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="12.6640625" style="3" customWidth="1"/>
+    <col min="7" max="19" width="10.6640625" style="3" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -666,7 +631,6 @@
       <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
         <v>42</v>
       </c>
@@ -674,40 +638,40 @@
         <v>43</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -723,11 +687,10 @@
       <c r="D2" s="1">
         <v>2</v>
       </c>
-      <c r="E2" s="2"/>
       <c r="F2" s="3">
         <v>11080002</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H2" s="3">
@@ -748,12 +711,12 @@
       <c r="M2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
@@ -768,11 +731,10 @@
       <c r="D3" s="1">
         <v>3</v>
       </c>
-      <c r="E3" s="2"/>
       <c r="F3" s="3">
         <v>11080003</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H3" s="3">
@@ -793,7 +755,6 @@
       <c r="M3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
@@ -808,11 +769,10 @@
       <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
       <c r="F4" s="3">
         <v>11080004</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H4" s="3">
@@ -827,9 +787,6 @@
       <c r="K4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
@@ -844,11 +801,10 @@
       <c r="D5" s="1">
         <v>4</v>
       </c>
-      <c r="E5" s="2"/>
       <c r="F5" s="3">
         <v>11080005</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H5" s="3">
@@ -869,7 +825,6 @@
       <c r="M5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
@@ -884,11 +839,10 @@
       <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="2"/>
       <c r="F6" s="3">
         <v>11080006</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H6" s="3">
@@ -903,16 +857,12 @@
       <c r="K6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="E7" s="2"/>
       <c r="F7" s="3">
         <v>11080007</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H7" s="3">
@@ -927,16 +877,12 @@
       <c r="K7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="E8" s="2"/>
       <c r="F8" s="3">
         <v>11080008</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H8" s="3">
@@ -957,14 +903,12 @@
       <c r="M8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="E9" s="2"/>
       <c r="F9" s="3">
         <v>11080009</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H9" s="3">
@@ -985,14 +929,12 @@
       <c r="M9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="E10" s="2"/>
       <c r="F10" s="3">
         <v>11080010</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H10" s="3">
@@ -1007,16 +949,12 @@
       <c r="K10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="E11" s="2"/>
       <c r="F11" s="3">
         <v>11080011</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H11" s="3">
@@ -1031,16 +969,12 @@
       <c r="K11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="E12" s="2"/>
       <c r="F12" s="3">
         <v>11080012</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="4" t="s">
         <v>39</v>
       </c>
       <c r="H12" s="3">
@@ -1061,14 +995,12 @@
       <c r="M12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="E13" s="2"/>
       <c r="F13" s="3">
         <v>11080013</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H13" s="3">
@@ -1089,14 +1021,12 @@
       <c r="M13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="E14" s="2"/>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>11080014</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="4" t="s">
         <v>41</v>
       </c>
       <c r="H14" s="3">
@@ -1105,23 +1035,6 @@
       <c r="I14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
